--- a/Draft Excel Codelists/pil_properties.xlsx
+++ b/Draft Excel Codelists/pil_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B3ABA-870B-D345-BB43-3C9ADD298200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F694582-2F5F-4E48-8465-E2F1F77016EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="1760" windowWidth="42960" windowHeight="28840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="265">
   <si>
     <t>Description</t>
   </si>
@@ -755,18 +755,9 @@
     <t>Blow Count</t>
   </si>
   <si>
-    <t>blows_per_ft</t>
-  </si>
-  <si>
-    <t>Strike length</t>
-  </si>
-  <si>
     <t>//propertyClass</t>
   </si>
   <si>
-    <t>stroke_length</t>
-  </si>
-  <si>
     <t>The energy delivered to the pile</t>
   </si>
   <si>
@@ -797,12 +788,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>A note specifically associated with the domain value (pile tip positiom) and/or other measurements at this location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The distance that the pile tip travels for </t>
-  </si>
-  <si>
     <t>pen_increment</t>
   </si>
   <si>
@@ -812,9 +797,6 @@
     <t>The number of strikes of the hammer against the pile for a distance given by pen_increment</t>
   </si>
   <si>
-    <t>The height of hammer fall onto the pil</t>
-  </si>
-  <si>
     <t>pen_per_blow</t>
   </si>
   <si>
@@ -828,6 +810,27 @@
   </si>
   <si>
     <t>Time recorded</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>Stroke length</t>
+  </si>
+  <si>
+    <t>Pressure at hammer for double acting hammer or downthrust pressure when vibrating</t>
+  </si>
+  <si>
+    <t>A note specifically associated with the domain value (pile tip position) and/or other measurements at this location</t>
+  </si>
+  <si>
+    <t>The distance that the pile tip travels for a given number of hammer blows</t>
+  </si>
+  <si>
+    <t>The height of hammer fall onto the pile</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1000,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,22 +1042,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1285,11 +1272,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
@@ -1304,8 +1291,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D11" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -1668,10 +1655,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1702,7 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="15" t="s">
@@ -1725,7 +1712,7 @@
         <v>238</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>180</v>
@@ -1737,17 +1724,17 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
@@ -1758,165 +1745,180 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
+      <c r="A4" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D6" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B7" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D10" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1931,7 +1933,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F10</xm:sqref>
+          <xm:sqref>F2:F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1942,11 +1944,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,19 +1982,19 @@
         <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
       </c>
       <c r="B3" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2001,34 +2003,94 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>60</v>
+      <c r="B5" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>244</v>
+      <c r="B6" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Draft Excel Codelists/pil_properties.xlsx
+++ b/Draft Excel Codelists/pil_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F694582-2F5F-4E48-8465-E2F1F77016EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF9E0F-BBE9-5648-85D2-0E1C28598D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="1760" windowWidth="42960" windowHeight="28840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="325">
   <si>
     <t>Description</t>
   </si>
@@ -758,9 +758,6 @@
     <t>//propertyClass</t>
   </si>
   <si>
-    <t>The energy delivered to the pile</t>
-  </si>
-  <si>
     <t>bearing</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
     <t>Tip elevation</t>
   </si>
   <si>
-    <t>The elevation of the pile tip, where value and unit of measure are defined by the coordinate reference system of the pile's centerline origin (eg cutoff elevation)</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
@@ -803,34 +797,220 @@
     <t>Penetration per blow</t>
   </si>
   <si>
-    <t>The distance traveled per blow of the hammer. This value is typically computed from the blow_count and pen_increment values</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Time recorded</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
     <t>stroke</t>
   </si>
   <si>
-    <t>Stroke length</t>
-  </si>
-  <si>
-    <t>Pressure at hammer for double acting hammer or downthrust pressure when vibrating</t>
-  </si>
-  <si>
-    <t>A note specifically associated with the domain value (pile tip position) and/or other measurements at this location</t>
-  </si>
-  <si>
-    <t>The distance that the pile tip travels for a given number of hammer blows</t>
-  </si>
-  <si>
-    <t>The height of hammer fall onto the pile</t>
+    <t>rmx_avg</t>
+  </si>
+  <si>
+    <t>rmx_min</t>
+  </si>
+  <si>
+    <t>rmx_max</t>
+  </si>
+  <si>
+    <t>Average RMX</t>
+  </si>
+  <si>
+    <t>Minimum RMX</t>
+  </si>
+  <si>
+    <t>Maximum RMX</t>
+  </si>
+  <si>
+    <t>csx_avg</t>
+  </si>
+  <si>
+    <t>csx_min</t>
+  </si>
+  <si>
+    <t>csx_max</t>
+  </si>
+  <si>
+    <t>Average CSX</t>
+  </si>
+  <si>
+    <t>Minimum CSX</t>
+  </si>
+  <si>
+    <t>Maximum CSX</t>
+  </si>
+  <si>
+    <t>The compression strength maximum averaged over the number of blows for a spccific penetration increment (typically 1 foot).</t>
+  </si>
+  <si>
+    <t>The maximum Case Method Capacity (JC) averaged over the number of blows for a specific penetratinon increment (typically 1 foot).</t>
+  </si>
+  <si>
+    <t>The elevation of the pile tip, where value and unit of measure are defined by the coordinate reference system of the pile's centerline origin (eg cutoff elevation.</t>
+  </si>
+  <si>
+    <t>A note specifically associated with the domain value (pile tip position) and/or other measurements at this location.</t>
+  </si>
+  <si>
+    <t>The distance that the pile tip travels for a given number of hammer blows.</t>
+  </si>
+  <si>
+    <t>The distance traveled per blow of the hammer. This value is typically computed from the blow_count and pen_increment values.</t>
+  </si>
+  <si>
+    <t>Time recorded.</t>
+  </si>
+  <si>
+    <t>tsx_max</t>
+  </si>
+  <si>
+    <t>tsx_avg</t>
+  </si>
+  <si>
+    <t>tsx_min</t>
+  </si>
+  <si>
+    <t>Average TSX</t>
+  </si>
+  <si>
+    <t>Maximum TSX</t>
+  </si>
+  <si>
+    <t>Minimum TSX</t>
+  </si>
+  <si>
+    <t>emx_avg</t>
+  </si>
+  <si>
+    <t>emx_min</t>
+  </si>
+  <si>
+    <t>emx_max</t>
+  </si>
+  <si>
+    <t>Average EMX</t>
+  </si>
+  <si>
+    <t>Minimum EMX</t>
+  </si>
+  <si>
+    <t>Maximum EMX</t>
+  </si>
+  <si>
+    <t>The maximum energy averaged over the number of blows for a spccific penetration increment (typically 1 foot).</t>
+  </si>
+  <si>
+    <t>The maximum  observed maximum energy for the depth interval.</t>
+  </si>
+  <si>
+    <t>The minimum observed maximum energy for the depth interval.</t>
+  </si>
+  <si>
+    <t>The maximum observed maximum Case Method capacity (JC) for the depth increment.</t>
+  </si>
+  <si>
+    <t>The minimum observed maximum Case Method capacity (JC) for the depth increment.</t>
+  </si>
+  <si>
+    <t>The minimum observed compression strength maximum for the depth interval.</t>
+  </si>
+  <si>
+    <t>The maximum observed compression strength maximum for the depth interval.</t>
+  </si>
+  <si>
+    <t>stk_avg</t>
+  </si>
+  <si>
+    <t>strk_max</t>
+  </si>
+  <si>
+    <t>stk_min</t>
+  </si>
+  <si>
+    <t>Average Stroke</t>
+  </si>
+  <si>
+    <t>Maximum Stroke</t>
+  </si>
+  <si>
+    <t>Minimum Stroke</t>
+  </si>
+  <si>
+    <t>The observed stroke length averaged over the number of blows for a specific penetration increment (typcially 1 foot).</t>
+  </si>
+  <si>
+    <t>The maximum observed stroke for the depth interval</t>
+  </si>
+  <si>
+    <t>The minimum observed stroke for the depth interval.</t>
+  </si>
+  <si>
+    <t>bpm_average</t>
+  </si>
+  <si>
+    <t>bpm_max</t>
+  </si>
+  <si>
+    <t>bpm_min</t>
+  </si>
+  <si>
+    <t>Average BPM</t>
+  </si>
+  <si>
+    <t>Maximum BPM</t>
+  </si>
+  <si>
+    <t>Minimum BPM</t>
+  </si>
+  <si>
+    <t>The number of hammer blows occurring in one minute averaged over the number of blows for a specific penetration increment (typically 1 foot).</t>
+  </si>
+  <si>
+    <t>The minimum observed number of hammer blows per minute for the depth interval.</t>
+  </si>
+  <si>
+    <t>The maximum observed number of hamer blows per minute for the depth interval.</t>
+  </si>
+  <si>
+    <t>bl_no</t>
+  </si>
+  <si>
+    <t>Blow Number</t>
+  </si>
+  <si>
+    <t>Counting from 1 as the first hammer blow on the pile, the blow number is the count for any individual blow (eg. 2 is the 2nd blow, 3 is the first blow, etc.)</t>
+  </si>
+  <si>
+    <t>The tension strength maximum - full record searchm averaged over the number of blows for a spccific penetration increment (typically 1 foot).</t>
+  </si>
+  <si>
+    <t>The maximum observed tension strength maximum - full record search, for the depth interval.</t>
+  </si>
+  <si>
+    <t>The minimum observed tension strength maximum - full record search, for the depth interval.</t>
+  </si>
+  <si>
+    <t>The energy delivered to the pile, required for hydraulic hammer</t>
+  </si>
+  <si>
+    <t>The height of hammer fall onto the pile; required for diesel and air hammers</t>
+  </si>
+  <si>
+    <t>Stroke height</t>
+  </si>
+  <si>
+    <t>Pressure at hammer for double acting hammer or downthrust crowd when vibrating</t>
+  </si>
+  <si>
+    <t>depth_flag</t>
+  </si>
+  <si>
+    <t>Recorded depth flag</t>
+  </si>
+  <si>
+    <t>True if the depth associated with this reord is the recorded depth (usually at even 1 foot increments). False if the depth is calculated from the recorded depth increment and blow count for the increment</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1180,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1041,6 +1221,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1272,8 +1471,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</calculatedColumnFormula>
@@ -1291,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D11" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D30" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D30" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -1655,10 +1854,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1911,7 @@
         <v>238</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>180</v>
@@ -1728,13 +1927,13 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
@@ -1744,7 +1943,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1753,10 +1952,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>1</v>
@@ -1772,13 +1971,13 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>1</v>
@@ -1794,13 +1993,13 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>246</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>1</v>
@@ -1816,13 +2015,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>4</v>
@@ -1838,13 +2037,13 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>1</v>
@@ -1860,13 +2059,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>1</v>
@@ -1876,7 +2075,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1885,10 +2084,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>25</v>
@@ -1907,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>1</v>
@@ -1919,6 +2118,466 @@
         <v>3</v>
       </c>
       <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
+        <v>Not used</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,7 +2592,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F11</xm:sqref>
+          <xm:sqref>F2:F31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1944,11 +2603,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1991,7 +2650,7 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>239</v>
@@ -2015,7 +2674,7 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>239</v>
@@ -2027,7 +2686,7 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>239</v>
@@ -2039,7 +2698,7 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>239</v>
@@ -2051,7 +2710,7 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>239</v>
@@ -2063,7 +2722,7 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>239</v>
@@ -2090,6 +2749,234 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1811,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>239</v>
       </c>
     </row>
